--- a/assets/xlsform/simple_form.xlsx
+++ b/assets/xlsform/simple_form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705F7508-A965-4820-8096-AD0B4C650715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0040A00F-3C6F-4702-BFBE-686B6DEF2FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="4920" windowWidth="30135" windowHeight="15345" tabRatio="542" xr2:uid="{C50DDC91-227D-4C28-807B-6890084E472E}"/>
+    <workbookView xWindow="11160" yWindow="4155" windowWidth="30135" windowHeight="15345" tabRatio="542" xr2:uid="{C50DDC91-227D-4C28-807B-6890084E472E}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="10" r:id="rId1"/>
@@ -4013,10 +4013,10 @@
     <t>namespaces</t>
   </si>
   <si>
-    <t>ct="https://cybertracker.org/xforms</t>
-  </si>
-  <si>
     <t>myform</t>
+  </si>
+  <si>
+    <t>ct="https://cybertracker.org/xforms"</t>
   </si>
 </sst>
 </file>
@@ -4246,6 +4246,69 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
@@ -4260,6 +4323,137 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4412,200 +4606,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FF00B050"/>
@@ -4642,7 +4642,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8BCF28F-4446-420A-A249-4C129790FE67}" name="tblSurvey" displayName="tblSurvey" ref="A1:S170" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8BCF28F-4446-420A-A249-4C129790FE67}" name="tblSurvey" displayName="tblSurvey" ref="A1:S170" totalsRowShown="0" headerRowDxfId="12">
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{022962FC-8CC9-4AB6-B048-71E74C206995}" name="type"/>
     <tableColumn id="2" xr3:uid="{6DA5C753-F0F7-4FC1-B05D-B91AAB5BAB3F}" name="name"/>
@@ -4669,19 +4669,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDEF4087-4080-4F8E-89ED-74C844BA4B83}" name="tblQuestionTypes" displayName="tblQuestionTypes" ref="A1:B26" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDEF4087-4080-4F8E-89ED-74C844BA4B83}" name="tblQuestionTypes" displayName="tblQuestionTypes" ref="A1:B26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5569A296-72EF-49F5-AAE4-3D3F6FCD8CD5}" name="Question type" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{446F971D-0AFF-4279-840E-A2C6A8D1B118}" name="Description" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{5569A296-72EF-49F5-AAE4-3D3F6FCD8CD5}" name="Question type" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{446F971D-0AFF-4279-840E-A2C6A8D1B118}" name="Description" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EFADEFCE-A6FA-4E9A-9F3E-21F68ACF1AF3}" name="tblReserved" displayName="tblReserved" ref="A1:A1024" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EFADEFCE-A6FA-4E9A-9F3E-21F68ACF1AF3}" name="tblReserved" displayName="tblReserved" ref="A1:A1024" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4724A0EE-AB51-48A2-8A08-2E650EEB5F07}" name="Reserved keywords" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{4724A0EE-AB51-48A2-8A08-2E650EEB5F07}" name="Reserved keywords" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4991,7 +4991,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5123,49 +5123,49 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B39">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B44">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70 B57:B68 B45:B47 B2:B3 B5:B11 B40:B42 B13:B23 B52:B55 B30:B33 B77:B170">
-    <cfRule type="duplicateValues" dxfId="12" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B73">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B76">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B29">
-    <cfRule type="duplicateValues" dxfId="5" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="28"/>
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A43:A47 A50:A170 A2:A3 A5:A41" xr:uid="{5A5EBDF2-8D76-4B72-B739-2B3433DFC758}">
@@ -5267,13 +5267,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B55">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Name" error="Names must be unique and cannot contain spaces, non-ASCII characters, reserved keywords, or special symbols. For ArcGIS Enterprise feature layers, names must not exceed 31 characters." sqref="A54:B54 A55" xr:uid="{B518AD6F-2AFD-4F66-B7AC-063D9382588E}">
@@ -5293,7 +5293,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5326,10 +5326,10 @@
         <v>1322</v>
       </c>
       <c r="B2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C2" t="s">
         <v>1325</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1324</v>
       </c>
       <c r="D2">
         <v>2022111201</v>
@@ -6604,10 +6604,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A36">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A27:A36" xr:uid="{A614EE8D-90AF-41E3-B26B-57E72EEB6EA1}">

--- a/assets/xlsform/simple_form.xlsx
+++ b/assets/xlsform/simple_form.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0040A00F-3C6F-4702-BFBE-686B6DEF2FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DAB74D-7716-4F3D-A939-7952D89D9644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="4155" windowWidth="30135" windowHeight="15345" tabRatio="542" xr2:uid="{C50DDC91-227D-4C28-807B-6890084E472E}"/>
+    <workbookView xWindow="10665" yWindow="2190" windowWidth="30135" windowHeight="15345" tabRatio="542" xr2:uid="{C50DDC91-227D-4C28-807B-6890084E472E}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1328">
   <si>
     <t>Question type</t>
   </si>
@@ -4017,6 +4017,12 @@
   </si>
   <si>
     <t>ct="https://cybertracker.org/xforms"</t>
+  </si>
+  <si>
+    <t>bind::ct:immersive</t>
+  </si>
+  <si>
+    <t>bind::ct:wizardMode</t>
   </si>
 </sst>
 </file>
@@ -4168,7 +4174,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4228,15 +4234,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -4245,69 +4244,6 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{E6D8AB08-FCF5-4248-A5AD-A4193EF46E16}"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4323,137 +4259,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4606,6 +4411,200 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FF00B050"/>
@@ -4642,13 +4641,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8BCF28F-4446-420A-A249-4C129790FE67}" name="tblSurvey" displayName="tblSurvey" ref="A1:S170" totalsRowShown="0" headerRowDxfId="12">
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E8BCF28F-4446-420A-A249-4C129790FE67}" name="tblSurvey" displayName="tblSurvey" ref="A1:R169" totalsRowShown="0" headerRowDxfId="27">
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{022962FC-8CC9-4AB6-B048-71E74C206995}" name="type"/>
     <tableColumn id="2" xr3:uid="{6DA5C753-F0F7-4FC1-B05D-B91AAB5BAB3F}" name="name"/>
     <tableColumn id="3" xr3:uid="{97FD9F86-1A43-4AB7-9A1B-A5D4E4B6641A}" name="label"/>
     <tableColumn id="4" xr3:uid="{456400C6-C44D-4DF2-8FC6-CA1972CF56BD}" name="hint"/>
-    <tableColumn id="23" xr3:uid="{ACC0D158-A2A8-4690-8A34-743ACBAE6C2F}" name="bind::ct:parameters"/>
     <tableColumn id="5" xr3:uid="{7483B6CB-863E-4EBA-B8BE-FA57C247DB2F}" name="appearance"/>
     <tableColumn id="6" xr3:uid="{A86B9B85-9D71-4901-80C7-643FEF1DE43E}" name="required"/>
     <tableColumn id="7" xr3:uid="{27A7EF5C-25BB-4825-AEF5-A0B25DA51760}" name="required_message"/>
@@ -4669,19 +4667,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDEF4087-4080-4F8E-89ED-74C844BA4B83}" name="tblQuestionTypes" displayName="tblQuestionTypes" ref="A1:B26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDEF4087-4080-4F8E-89ED-74C844BA4B83}" name="tblQuestionTypes" displayName="tblQuestionTypes" ref="A1:B26" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5569A296-72EF-49F5-AAE4-3D3F6FCD8CD5}" name="Question type" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{446F971D-0AFF-4279-840E-A2C6A8D1B118}" name="Description" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{5569A296-72EF-49F5-AAE4-3D3F6FCD8CD5}" name="Question type" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{446F971D-0AFF-4279-840E-A2C6A8D1B118}" name="Description" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EFADEFCE-A6FA-4E9A-9F3E-21F68ACF1AF3}" name="tblReserved" displayName="tblReserved" ref="A1:A1024" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EFADEFCE-A6FA-4E9A-9F3E-21F68ACF1AF3}" name="tblReserved" displayName="tblReserved" ref="A1:A1024" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4724A0EE-AB51-48A2-8A08-2E650EEB5F07}" name="Reserved keywords" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4724A0EE-AB51-48A2-8A08-2E650EEB5F07}" name="Reserved keywords" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4987,11 +4985,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4999,11 +4997,11 @@
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="18" width="22.7109375" customWidth="1"/>
-    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="4" max="17" width="22.7109375" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>1245</v>
       </c>
@@ -5017,167 +5015,164 @@
         <v>1246</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1314</v>
+        <v>1251</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>1259</v>
-      </c>
-      <c r="S1" s="17" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>1312</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>1313</v>
       </c>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="26" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="24" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
+  <conditionalFormatting sqref="B37:B38">
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B39">
-    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
+  <conditionalFormatting sqref="B42:B43">
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B44">
-    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+  <conditionalFormatting sqref="B69 B56:B67 B44:B46 B2 B4:B10 B39:B41 B12:B22 B51:B54 B29:B32 B76:B169">
+    <cfRule type="duplicateValues" dxfId="12" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70 B57:B68 B45:B47 B2:B3 B5:B11 B40:B42 B13:B23 B52:B55 B30:B33 B77:B170">
-    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
+  <conditionalFormatting sqref="B49:B50">
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+  <conditionalFormatting sqref="B70:B72">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:B73">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+  <conditionalFormatting sqref="B73:B75">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74:B76">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B29">
-    <cfRule type="duplicateValues" dxfId="13" priority="28"/>
+  <conditionalFormatting sqref="B23:B28">
+    <cfRule type="duplicateValues" dxfId="5" priority="28"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A43:A47 A50:A170 A2:A3 A5:A41" xr:uid="{5A5EBDF2-8D76-4B72-B739-2B3433DFC758}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A42:A46 A49:A169 A4:A40 A2" xr:uid="{5A5EBDF2-8D76-4B72-B739-2B3433DFC758}">
       <formula1>QuestionTypes</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Non-Standard Input" error="The appearance value you have entered is not one of the supported appearance types._x000a__x000a_If you're attempting to combine appearance types, ensure that they are separated by a space." sqref="F49:F170 F5:F47" xr:uid="{44E011AE-52F4-4B16-BABF-CA45B7127645}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Non-Standard Input" error="The appearance value you have entered is not one of the supported appearance types._x000a__x000a_If you're attempting to combine appearance types, ensure that they are separated by a space." sqref="E48:E169 E4:E46" xr:uid="{44E011AE-52F4-4B16-BABF-CA45B7127645}">
       <formula1>Appearances</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G49:G170 I49:I170 I2:I3 I4:I47 G2:G3 G4:G47" xr:uid="{DBB329AD-6667-4687-A562-56C9714BF775}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F48:F169 H48:H169 F2:F46 H2:H46" xr:uid="{DBB329AD-6667-4687-A562-56C9714BF775}">
       <formula1>"yes"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Name" error="Names must be unique and cannot contain spaces, non-ASCII characters, reserved keywords, or special symbols. For ArcGIS Enterprise feature layers, names must not exceed 31 characters." sqref="B49:B170 B2:B3 B5:B47" xr:uid="{AE52CDED-D21E-4469-BBC3-752225966B97}">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Name" error="Names must be unique and cannot contain spaces, non-ASCII characters, reserved keywords, or special symbols. For ArcGIS Enterprise feature layers, names must not exceed 31 characters." sqref="B48:B169 B4:B46 B2" xr:uid="{AE52CDED-D21E-4469-BBC3-752225966B97}">
       <formula1>AND(LEN(B2)=LEN(SUBSTITUTE(B2," ","")),LEN(B2)&lt;32,COUNTIF(Reserved,B2) = 0,SUMPRODUCT(--ISNUMBER(SEARCH(SpecialChars,B2)))=0)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5258,22 +5253,21 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25"/>
+      <c r="A55" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B55">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Name" error="Names must be unique and cannot contain spaces, non-ASCII characters, reserved keywords, or special symbols. For ArcGIS Enterprise feature layers, names must not exceed 31 characters." sqref="A54:B54 A55" xr:uid="{B518AD6F-2AFD-4F66-B7AC-063D9382588E}">
@@ -5290,10 +5284,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5301,10 +5295,11 @@
     <col min="1" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>1239</v>
       </c>
@@ -5318,10 +5313,13 @@
         <v>1241</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1326</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1322</v>
       </c>
@@ -5333,6 +5331,12 @@
       </c>
       <c r="D2">
         <v>2022111201</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5359,10 +5363,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5527,10 +5531,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="1" t="s">
         <v>1306</v>
       </c>
     </row>
@@ -6604,10 +6608,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A36">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A27:A36" xr:uid="{A614EE8D-90AF-41E3-B26B-57E72EEB6EA1}">
